--- a/集合之线程安全对比.xlsx
+++ b/集合之线程安全对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Practice\multithread_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E15F284A-74E8-4436-A9E4-20DEDEAA87F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{053F4D22-4FED-47AE-BD94-8EA23AB6A2B3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920" xr2:uid="{E4AB2F60-AF9D-45E8-928F-AB39DAA71EF9}"/>
   </bookViews>
@@ -154,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -162,17 +162,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -492,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE971E-9396-4700-8EFF-42A917414108}">
-  <dimension ref="B3:G9"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -506,110 +610,111 @@
     <col min="7" max="7" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
+      <c r="B9" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
